--- a/019-Analisis-de-varianza/Armand's.xlsx
+++ b/019-Analisis-de-varianza/Armand's.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yoselin\Documents\Vision\pe-apps\019-Analisis-de-varianza\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="36" windowWidth="8100" windowHeight="6060" tabRatio="853"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="8100" windowHeight="6060" tabRatio="853"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="9" r:id="rId1"/>
@@ -12,8 +17,8 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Data!$A$1:$J$16</definedName>
     <definedName name="Population">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Data!$A$1:$J$16</definedName>
     <definedName name="Sales">#REF!</definedName>
     <definedName name="x">#REF!</definedName>
     <definedName name="y">#REF!</definedName>
@@ -23,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Population</t>
   </si>
@@ -32,13 +37,46 @@
   </si>
   <si>
     <t>Restaurant</t>
+  </si>
+  <si>
+    <t>Meses</t>
+  </si>
+  <si>
+    <t>Enero</t>
+  </si>
+  <si>
+    <t>Febrero</t>
+  </si>
+  <si>
+    <t>Marzo</t>
+  </si>
+  <si>
+    <t>Abril</t>
+  </si>
+  <si>
+    <t>Mayo</t>
+  </si>
+  <si>
+    <t>Junio</t>
+  </si>
+  <si>
+    <t>Julio</t>
+  </si>
+  <si>
+    <t>Agosto</t>
+  </si>
+  <si>
+    <t>Septiembre</t>
+  </si>
+  <si>
+    <t>Octubre</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="Times New Roman"/>
@@ -82,11 +120,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -128,7 +174,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -160,9 +206,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -194,6 +241,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -369,31 +417,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.69921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.59765625" customWidth="1"/>
-    <col min="3" max="3" width="11.8984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.8984375" customWidth="1"/>
+    <col min="1" max="1" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.625" customWidth="1"/>
+    <col min="3" max="3" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.875" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="9.69921875" customWidth="1"/>
-    <col min="7" max="7" width="9.3984375" customWidth="1"/>
-    <col min="8" max="8" width="9.59765625" customWidth="1"/>
-    <col min="9" max="9" width="9.69921875" customWidth="1"/>
-    <col min="10" max="10" width="11.3984375" customWidth="1"/>
-    <col min="11" max="11" width="11.8984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="9.375" customWidth="1"/>
+    <col min="8" max="8" width="9.625" customWidth="1"/>
+    <col min="9" max="9" width="9.75" customWidth="1"/>
+    <col min="10" max="10" width="11.375" customWidth="1"/>
+    <col min="11" max="11" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="12.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -403,9 +453,12 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -415,9 +468,12 @@
       <c r="C2">
         <v>58</v>
       </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -427,8 +483,11 @@
       <c r="C3">
         <v>105</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -438,8 +497,11 @@
       <c r="C4">
         <v>88</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -449,8 +511,11 @@
       <c r="C5">
         <v>118</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -460,8 +525,11 @@
       <c r="C6">
         <v>117</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -471,8 +539,11 @@
       <c r="C7">
         <v>137</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -482,8 +553,11 @@
       <c r="C8">
         <v>157</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -493,8 +567,11 @@
       <c r="C9">
         <v>169</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -504,8 +581,11 @@
       <c r="C10">
         <v>149</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -514,6 +594,9 @@
       </c>
       <c r="C11">
         <v>202</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -526,12 +609,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -540,12 +623,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
